--- a/CPEER.xlsx
+++ b/CPEER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PDFProcessTool\SaveData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4595FA55-A33A-466B-96F3-B87C4399AF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33527C15-E766-4E84-A222-F3F111D15A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="1560" windowWidth="18996" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3529" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="85">
   <si>
     <t>院校</t>
   </si>
@@ -633,6 +633,18 @@
     <t>智慧农业与生态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>北京师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学与技术学院</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机技术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -642,7 +654,7 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="000000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,6 +742,25 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -848,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -977,6 +1008,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -3236,10 +3297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I881"/>
+  <dimension ref="A1:I1022"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A859" workbookViewId="0">
-      <selection activeCell="J875" sqref="J875"/>
+    <sheetView tabSelected="1" topLeftCell="A1018" workbookViewId="0">
+      <selection activeCell="D1022" sqref="D1022"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8349,8 +8410,8 @@
       </c>
     </row>
     <row r="177" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="14" t="s">
-        <v>26</v>
+      <c r="A177" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="B177" s="11">
         <v>2023</v>
@@ -12612,8 +12673,8 @@
       </c>
     </row>
     <row r="324" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A324" s="32" t="s">
-        <v>51</v>
+      <c r="A324" s="33" t="s">
+        <v>82</v>
       </c>
       <c r="B324" s="32">
         <v>2023</v>
@@ -28791,6 +28852,4095 @@
       </c>
       <c r="I881" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="882" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A882" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B882" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C882" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D882" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E882" s="45">
+        <v>351</v>
+      </c>
+      <c r="F882" s="45">
+        <v>425</v>
+      </c>
+      <c r="G882" s="45">
+        <v>500</v>
+      </c>
+      <c r="H882" s="45">
+        <v>388</v>
+      </c>
+      <c r="I882" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="883" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A883" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B883" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C883" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D883" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E883" s="45">
+        <v>321</v>
+      </c>
+      <c r="F883" s="47">
+        <v>419.2</v>
+      </c>
+      <c r="G883" s="45">
+        <v>500</v>
+      </c>
+      <c r="H883" s="47">
+        <v>370.1</v>
+      </c>
+      <c r="I883" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="884" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A884" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B884" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C884" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D884" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E884" s="45">
+        <v>310</v>
+      </c>
+      <c r="F884" s="47">
+        <v>422.2</v>
+      </c>
+      <c r="G884" s="45">
+        <v>500</v>
+      </c>
+      <c r="H884" s="47">
+        <v>366.1</v>
+      </c>
+      <c r="I884" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="885" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A885" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B885" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C885" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D885" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E885" s="45">
+        <v>299</v>
+      </c>
+      <c r="F885" s="47">
+        <v>405.6</v>
+      </c>
+      <c r="G885" s="45">
+        <v>500</v>
+      </c>
+      <c r="H885" s="47">
+        <v>352.3</v>
+      </c>
+      <c r="I885" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="886" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A886" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B886" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C886" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D886" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E886" s="45">
+        <v>371</v>
+      </c>
+      <c r="F886" s="47">
+        <v>333.4</v>
+      </c>
+      <c r="G886" s="45">
+        <v>500</v>
+      </c>
+      <c r="H886" s="47">
+        <v>352.2</v>
+      </c>
+      <c r="I886" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="887" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A887" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B887" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C887" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D887" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E887" s="45">
+        <v>366</v>
+      </c>
+      <c r="F887" s="47">
+        <v>330.4</v>
+      </c>
+      <c r="G887" s="45">
+        <v>500</v>
+      </c>
+      <c r="H887" s="47">
+        <v>348.2</v>
+      </c>
+      <c r="I887" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="888" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A888" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B888" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C888" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D888" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E888" s="45">
+        <v>282</v>
+      </c>
+      <c r="F888" s="47">
+        <v>402.6</v>
+      </c>
+      <c r="G888" s="45">
+        <v>500</v>
+      </c>
+      <c r="H888" s="47">
+        <v>342.3</v>
+      </c>
+      <c r="I888" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="889" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A889" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B889" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C889" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D889" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E889" s="45">
+        <v>298</v>
+      </c>
+      <c r="F889" s="45">
+        <v>376</v>
+      </c>
+      <c r="G889" s="45">
+        <v>500</v>
+      </c>
+      <c r="H889" s="45">
+        <v>337</v>
+      </c>
+      <c r="I889" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="890" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A890" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B890" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C890" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D890" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E890" s="45">
+        <v>324</v>
+      </c>
+      <c r="F890" s="45">
+        <v>328</v>
+      </c>
+      <c r="G890" s="45">
+        <v>500</v>
+      </c>
+      <c r="H890" s="45">
+        <v>326</v>
+      </c>
+      <c r="I890" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="891" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A891" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B891" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C891" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D891" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E891" s="45">
+        <v>317</v>
+      </c>
+      <c r="F891" s="47">
+        <v>329.2</v>
+      </c>
+      <c r="G891" s="45">
+        <v>500</v>
+      </c>
+      <c r="H891" s="47">
+        <v>323.10000000000002</v>
+      </c>
+      <c r="I891" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="892" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A892" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B892" s="48">
+        <v>2023</v>
+      </c>
+      <c r="C892" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D892" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E892" s="48">
+        <v>293</v>
+      </c>
+      <c r="F892" s="49">
+        <v>339.2</v>
+      </c>
+      <c r="G892" s="45">
+        <v>500</v>
+      </c>
+      <c r="H892" s="49">
+        <v>316.10000000000002</v>
+      </c>
+      <c r="I892" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="893" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A893" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B893" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C893" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D893" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E893" s="45">
+        <v>301</v>
+      </c>
+      <c r="F893" s="47">
+        <v>327.2</v>
+      </c>
+      <c r="G893" s="45">
+        <v>500</v>
+      </c>
+      <c r="H893" s="47">
+        <v>314.10000000000002</v>
+      </c>
+      <c r="I893" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="894" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A894" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B894" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C894" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D894" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E894" s="45">
+        <v>303</v>
+      </c>
+      <c r="F894" s="47">
+        <v>308.60000000000002</v>
+      </c>
+      <c r="G894" s="45">
+        <v>500</v>
+      </c>
+      <c r="H894" s="47">
+        <v>305.8</v>
+      </c>
+      <c r="I894" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="895" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A895" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B895" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C895" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D895" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E895" s="45">
+        <v>294</v>
+      </c>
+      <c r="F895" s="45">
+        <v>313</v>
+      </c>
+      <c r="G895" s="45">
+        <v>500</v>
+      </c>
+      <c r="H895" s="47">
+        <v>303.5</v>
+      </c>
+      <c r="I895" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="896" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A896" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B896" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C896" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D896" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E896" s="45">
+        <v>305</v>
+      </c>
+      <c r="F896" s="45">
+        <v>300</v>
+      </c>
+      <c r="G896" s="45">
+        <v>500</v>
+      </c>
+      <c r="H896" s="47">
+        <v>302.5</v>
+      </c>
+      <c r="I896" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="897" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A897" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B897" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C897" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D897" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E897" s="45">
+        <v>275</v>
+      </c>
+      <c r="F897" s="47">
+        <v>326.8</v>
+      </c>
+      <c r="G897" s="45">
+        <v>500</v>
+      </c>
+      <c r="H897" s="47">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="I897" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="898" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A898" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B898" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C898" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D898" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E898" s="45">
+        <v>280</v>
+      </c>
+      <c r="F898" s="45">
+        <v>321</v>
+      </c>
+      <c r="G898" s="45">
+        <v>500</v>
+      </c>
+      <c r="H898" s="47">
+        <v>300.5</v>
+      </c>
+      <c r="I898" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="899" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A899" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B899" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C899" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D899" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E899" s="45">
+        <v>284</v>
+      </c>
+      <c r="F899" s="45">
+        <v>317</v>
+      </c>
+      <c r="G899" s="45">
+        <v>500</v>
+      </c>
+      <c r="H899" s="47">
+        <v>300.5</v>
+      </c>
+      <c r="I899" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="900" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A900" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B900" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C900" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D900" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E900" s="45">
+        <v>289</v>
+      </c>
+      <c r="F900" s="45">
+        <v>312</v>
+      </c>
+      <c r="G900" s="45">
+        <v>500</v>
+      </c>
+      <c r="H900" s="47">
+        <v>300.5</v>
+      </c>
+      <c r="I900" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="901" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A901" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B901" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C901" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D901" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E901" s="45">
+        <v>290</v>
+      </c>
+      <c r="F901" s="45">
+        <v>310</v>
+      </c>
+      <c r="G901" s="45">
+        <v>500</v>
+      </c>
+      <c r="H901" s="45">
+        <v>300</v>
+      </c>
+      <c r="I901" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="902" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A902" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B902" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C902" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D902" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E902" s="45">
+        <v>280</v>
+      </c>
+      <c r="F902" s="45">
+        <v>320</v>
+      </c>
+      <c r="G902" s="45">
+        <v>500</v>
+      </c>
+      <c r="H902" s="45">
+        <v>300</v>
+      </c>
+      <c r="I902" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="903" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A903" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B903" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C903" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D903" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E903" s="45">
+        <v>307</v>
+      </c>
+      <c r="F903" s="45">
+        <v>453</v>
+      </c>
+      <c r="G903" s="45">
+        <v>500</v>
+      </c>
+      <c r="H903" s="45">
+        <v>453</v>
+      </c>
+      <c r="I903" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="904" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A904" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B904" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C904" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D904" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E904" s="45">
+        <v>330</v>
+      </c>
+      <c r="F904" s="47">
+        <v>441.4</v>
+      </c>
+      <c r="G904" s="45">
+        <v>500</v>
+      </c>
+      <c r="H904" s="47">
+        <v>441.4</v>
+      </c>
+      <c r="I904" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="905" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A905" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B905" s="50">
+        <v>2023</v>
+      </c>
+      <c r="C905" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D905" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E905" s="50">
+        <v>279</v>
+      </c>
+      <c r="F905" s="51">
+        <v>441.2</v>
+      </c>
+      <c r="G905" s="45">
+        <v>500</v>
+      </c>
+      <c r="H905" s="51">
+        <v>441.2</v>
+      </c>
+      <c r="I905" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="906" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A906" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B906" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C906" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D906" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E906" s="45">
+        <v>295</v>
+      </c>
+      <c r="F906" s="45">
+        <v>441</v>
+      </c>
+      <c r="G906" s="45">
+        <v>500</v>
+      </c>
+      <c r="H906" s="45">
+        <v>441</v>
+      </c>
+      <c r="I906" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="907" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A907" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B907" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C907" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D907" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E907" s="45">
+        <v>317</v>
+      </c>
+      <c r="F907" s="45">
+        <v>439</v>
+      </c>
+      <c r="G907" s="45">
+        <v>500</v>
+      </c>
+      <c r="H907" s="45">
+        <v>439</v>
+      </c>
+      <c r="I907" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="908" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A908" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B908" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C908" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D908" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E908" s="45">
+        <v>335</v>
+      </c>
+      <c r="F908" s="47">
+        <v>438.6</v>
+      </c>
+      <c r="G908" s="45">
+        <v>500</v>
+      </c>
+      <c r="H908" s="47">
+        <v>438.6</v>
+      </c>
+      <c r="I908" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="909" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A909" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B909" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C909" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D909" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E909" s="45">
+        <v>291</v>
+      </c>
+      <c r="F909" s="47">
+        <v>426.4</v>
+      </c>
+      <c r="G909" s="45">
+        <v>500</v>
+      </c>
+      <c r="H909" s="47">
+        <v>426.4</v>
+      </c>
+      <c r="I909" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="910" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A910" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B910" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C910" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D910" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E910" s="45">
+        <v>283</v>
+      </c>
+      <c r="F910" s="47">
+        <v>426.2</v>
+      </c>
+      <c r="G910" s="45">
+        <v>500</v>
+      </c>
+      <c r="H910" s="47">
+        <v>426.2</v>
+      </c>
+      <c r="I910" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="911" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A911" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B911" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C911" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D911" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E911" s="45">
+        <v>323</v>
+      </c>
+      <c r="F911" s="47">
+        <v>424.8</v>
+      </c>
+      <c r="G911" s="45">
+        <v>500</v>
+      </c>
+      <c r="H911" s="47">
+        <v>424.8</v>
+      </c>
+      <c r="I911" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="912" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A912" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B912" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C912" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D912" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E912" s="45">
+        <v>367</v>
+      </c>
+      <c r="F912" s="47">
+        <v>424.4</v>
+      </c>
+      <c r="G912" s="45">
+        <v>500</v>
+      </c>
+      <c r="H912" s="47">
+        <v>424.4</v>
+      </c>
+      <c r="I912" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="913" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A913" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B913" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C913" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D913" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E913" s="45">
+        <v>311</v>
+      </c>
+      <c r="F913" s="45">
+        <v>422</v>
+      </c>
+      <c r="G913" s="45">
+        <v>500</v>
+      </c>
+      <c r="H913" s="45">
+        <v>422</v>
+      </c>
+      <c r="I913" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="914" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A914" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B914" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C914" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D914" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E914" s="45">
+        <v>341</v>
+      </c>
+      <c r="F914" s="47">
+        <v>421.4</v>
+      </c>
+      <c r="G914" s="45">
+        <v>500</v>
+      </c>
+      <c r="H914" s="47">
+        <v>421.4</v>
+      </c>
+      <c r="I914" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="915" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A915" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B915" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C915" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D915" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E915" s="45">
+        <v>326</v>
+      </c>
+      <c r="F915" s="47">
+        <v>417.4</v>
+      </c>
+      <c r="G915" s="45">
+        <v>500</v>
+      </c>
+      <c r="H915" s="47">
+        <v>417.4</v>
+      </c>
+      <c r="I915" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="916" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A916" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B916" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C916" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D916" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E916" s="45">
+        <v>307</v>
+      </c>
+      <c r="F916" s="45">
+        <v>415</v>
+      </c>
+      <c r="G916" s="45">
+        <v>500</v>
+      </c>
+      <c r="H916" s="45">
+        <v>415</v>
+      </c>
+      <c r="I916" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="917" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A917" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B917" s="48">
+        <v>2023</v>
+      </c>
+      <c r="C917" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D917" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E917" s="48">
+        <v>328</v>
+      </c>
+      <c r="F917" s="48">
+        <v>415</v>
+      </c>
+      <c r="G917" s="45">
+        <v>500</v>
+      </c>
+      <c r="H917" s="48">
+        <v>415</v>
+      </c>
+      <c r="I917" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="918" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A918" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B918" s="50">
+        <v>2023</v>
+      </c>
+      <c r="C918" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D918" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E918" s="50">
+        <v>297</v>
+      </c>
+      <c r="F918" s="51">
+        <v>414.4</v>
+      </c>
+      <c r="G918" s="45">
+        <v>500</v>
+      </c>
+      <c r="H918" s="51">
+        <v>414.4</v>
+      </c>
+      <c r="I918" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="919" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A919" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B919" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C919" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D919" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E919" s="45">
+        <v>273</v>
+      </c>
+      <c r="F919" s="47">
+        <v>414.2</v>
+      </c>
+      <c r="G919" s="45">
+        <v>500</v>
+      </c>
+      <c r="H919" s="47">
+        <v>414.2</v>
+      </c>
+      <c r="I919" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="920" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A920" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B920" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C920" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D920" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E920" s="45">
+        <v>283</v>
+      </c>
+      <c r="F920" s="45">
+        <v>411</v>
+      </c>
+      <c r="G920" s="45">
+        <v>500</v>
+      </c>
+      <c r="H920" s="45">
+        <v>411</v>
+      </c>
+      <c r="I920" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="921" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A921" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B921" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C921" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D921" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E921" s="45">
+        <v>334</v>
+      </c>
+      <c r="F921" s="47">
+        <v>406.8</v>
+      </c>
+      <c r="G921" s="45">
+        <v>500</v>
+      </c>
+      <c r="H921" s="47">
+        <v>406.8</v>
+      </c>
+      <c r="I921" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="922" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A922" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B922" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C922" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D922" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E922" s="45">
+        <v>346</v>
+      </c>
+      <c r="F922" s="47">
+        <v>406.8</v>
+      </c>
+      <c r="G922" s="45">
+        <v>500</v>
+      </c>
+      <c r="H922" s="47">
+        <v>406.8</v>
+      </c>
+      <c r="I922" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="923" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A923" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B923" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C923" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D923" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E923" s="45">
+        <v>274</v>
+      </c>
+      <c r="F923" s="45">
+        <v>405</v>
+      </c>
+      <c r="G923" s="45">
+        <v>500</v>
+      </c>
+      <c r="H923" s="45">
+        <v>405</v>
+      </c>
+      <c r="I923" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="924" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A924" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B924" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C924" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D924" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E924" s="45">
+        <v>285</v>
+      </c>
+      <c r="F924" s="45">
+        <v>405</v>
+      </c>
+      <c r="G924" s="45">
+        <v>500</v>
+      </c>
+      <c r="H924" s="45">
+        <v>405</v>
+      </c>
+      <c r="I924" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="925" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A925" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B925" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C925" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D925" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E925" s="45">
+        <v>301</v>
+      </c>
+      <c r="F925" s="47">
+        <v>402.6</v>
+      </c>
+      <c r="G925" s="45">
+        <v>500</v>
+      </c>
+      <c r="H925" s="47">
+        <v>402.6</v>
+      </c>
+      <c r="I925" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="926" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A926" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B926" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C926" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D926" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E926" s="45">
+        <v>352</v>
+      </c>
+      <c r="F926" s="47">
+        <v>400.6</v>
+      </c>
+      <c r="G926" s="45">
+        <v>500</v>
+      </c>
+      <c r="H926" s="47">
+        <v>400.6</v>
+      </c>
+      <c r="I926" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="927" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A927" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B927" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C927" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D927" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E927" s="45">
+        <v>293</v>
+      </c>
+      <c r="F927" s="47">
+        <v>399.2</v>
+      </c>
+      <c r="G927" s="45">
+        <v>500</v>
+      </c>
+      <c r="H927" s="47">
+        <v>399.2</v>
+      </c>
+      <c r="I927" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="928" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A928" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B928" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C928" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D928" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E928" s="45">
+        <v>290</v>
+      </c>
+      <c r="F928" s="47">
+        <v>398.4</v>
+      </c>
+      <c r="G928" s="45">
+        <v>500</v>
+      </c>
+      <c r="H928" s="47">
+        <v>398.4</v>
+      </c>
+      <c r="I928" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="929" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A929" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B929" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C929" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D929" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E929" s="45">
+        <v>287</v>
+      </c>
+      <c r="F929" s="47">
+        <v>397.6</v>
+      </c>
+      <c r="G929" s="45">
+        <v>500</v>
+      </c>
+      <c r="H929" s="47">
+        <v>397.6</v>
+      </c>
+      <c r="I929" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="930" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A930" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B930" s="50">
+        <v>2023</v>
+      </c>
+      <c r="C930" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D930" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E930" s="50">
+        <v>326</v>
+      </c>
+      <c r="F930" s="51">
+        <v>394.8</v>
+      </c>
+      <c r="G930" s="45">
+        <v>500</v>
+      </c>
+      <c r="H930" s="51">
+        <v>394.8</v>
+      </c>
+      <c r="I930" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="931" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A931" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B931" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C931" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D931" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E931" s="45">
+        <v>359</v>
+      </c>
+      <c r="F931" s="47">
+        <v>394.8</v>
+      </c>
+      <c r="G931" s="45">
+        <v>500</v>
+      </c>
+      <c r="H931" s="47">
+        <v>394.8</v>
+      </c>
+      <c r="I931" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="932" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A932" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B932" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C932" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D932" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E932" s="45">
+        <v>334</v>
+      </c>
+      <c r="F932" s="47">
+        <v>394.4</v>
+      </c>
+      <c r="G932" s="45">
+        <v>500</v>
+      </c>
+      <c r="H932" s="47">
+        <v>394.4</v>
+      </c>
+      <c r="I932" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="933" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A933" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B933" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C933" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D933" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E933" s="45">
+        <v>338</v>
+      </c>
+      <c r="F933" s="47">
+        <v>394.4</v>
+      </c>
+      <c r="G933" s="45">
+        <v>500</v>
+      </c>
+      <c r="H933" s="47">
+        <v>394.4</v>
+      </c>
+      <c r="I933" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="934" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A934" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B934" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C934" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D934" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E934" s="45">
+        <v>281</v>
+      </c>
+      <c r="F934" s="47">
+        <v>388.8</v>
+      </c>
+      <c r="G934" s="45">
+        <v>500</v>
+      </c>
+      <c r="H934" s="47">
+        <v>388.8</v>
+      </c>
+      <c r="I934" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="935" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A935" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B935" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C935" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D935" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E935" s="45">
+        <v>329</v>
+      </c>
+      <c r="F935" s="47">
+        <v>388.2</v>
+      </c>
+      <c r="G935" s="45">
+        <v>500</v>
+      </c>
+      <c r="H935" s="47">
+        <v>388.2</v>
+      </c>
+      <c r="I935" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="936" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A936" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B936" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C936" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D936" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E936" s="45">
+        <v>305</v>
+      </c>
+      <c r="F936" s="47">
+        <v>385.2</v>
+      </c>
+      <c r="G936" s="45">
+        <v>500</v>
+      </c>
+      <c r="H936" s="47">
+        <v>385.2</v>
+      </c>
+      <c r="I936" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="937" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A937" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B937" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C937" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D937" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E937" s="45">
+        <v>280</v>
+      </c>
+      <c r="F937" s="47">
+        <v>384.2</v>
+      </c>
+      <c r="G937" s="45">
+        <v>500</v>
+      </c>
+      <c r="H937" s="47">
+        <v>384.2</v>
+      </c>
+      <c r="I937" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="938" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A938" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B938" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C938" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D938" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E938" s="45">
+        <v>338</v>
+      </c>
+      <c r="F938" s="45">
+        <v>384</v>
+      </c>
+      <c r="G938" s="45">
+        <v>500</v>
+      </c>
+      <c r="H938" s="45">
+        <v>384</v>
+      </c>
+      <c r="I938" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="939" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A939" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B939" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C939" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D939" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E939" s="45">
+        <v>275</v>
+      </c>
+      <c r="F939" s="47">
+        <v>382.4</v>
+      </c>
+      <c r="G939" s="45">
+        <v>500</v>
+      </c>
+      <c r="H939" s="47">
+        <v>382.4</v>
+      </c>
+      <c r="I939" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="940" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A940" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B940" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C940" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D940" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E940" s="45">
+        <v>275</v>
+      </c>
+      <c r="F940" s="47">
+        <v>379.8</v>
+      </c>
+      <c r="G940" s="45">
+        <v>500</v>
+      </c>
+      <c r="H940" s="47">
+        <v>379.8</v>
+      </c>
+      <c r="I940" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="941" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A941" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B941" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C941" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D941" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E941" s="45">
+        <v>294</v>
+      </c>
+      <c r="F941" s="47">
+        <v>379.4</v>
+      </c>
+      <c r="G941" s="45">
+        <v>500</v>
+      </c>
+      <c r="H941" s="47">
+        <v>379.4</v>
+      </c>
+      <c r="I941" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="942" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A942" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B942" s="48">
+        <v>2023</v>
+      </c>
+      <c r="C942" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D942" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E942" s="48">
+        <v>276</v>
+      </c>
+      <c r="F942" s="49">
+        <v>378.2</v>
+      </c>
+      <c r="G942" s="45">
+        <v>500</v>
+      </c>
+      <c r="H942" s="49">
+        <v>378.2</v>
+      </c>
+      <c r="I942" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="943" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A943" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B943" s="50">
+        <v>2023</v>
+      </c>
+      <c r="C943" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D943" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E943" s="50">
+        <v>317</v>
+      </c>
+      <c r="F943" s="51">
+        <v>376.4</v>
+      </c>
+      <c r="G943" s="45">
+        <v>500</v>
+      </c>
+      <c r="H943" s="51">
+        <v>376.4</v>
+      </c>
+      <c r="I943" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="944" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A944" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B944" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C944" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D944" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E944" s="45">
+        <v>341</v>
+      </c>
+      <c r="F944" s="45">
+        <v>375</v>
+      </c>
+      <c r="G944" s="45">
+        <v>500</v>
+      </c>
+      <c r="H944" s="45">
+        <v>375</v>
+      </c>
+      <c r="I944" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="945" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A945" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B945" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C945" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D945" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E945" s="45">
+        <v>301</v>
+      </c>
+      <c r="F945" s="47">
+        <v>367.8</v>
+      </c>
+      <c r="G945" s="45">
+        <v>500</v>
+      </c>
+      <c r="H945" s="47">
+        <v>367.8</v>
+      </c>
+      <c r="I945" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="946" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A946" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B946" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C946" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D946" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E946" s="45">
+        <v>294</v>
+      </c>
+      <c r="F946" s="45">
+        <v>364</v>
+      </c>
+      <c r="G946" s="45">
+        <v>500</v>
+      </c>
+      <c r="H946" s="45">
+        <v>364</v>
+      </c>
+      <c r="I946" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="947" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A947" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B947" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C947" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D947" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E947" s="45">
+        <v>310</v>
+      </c>
+      <c r="F947" s="45">
+        <v>364</v>
+      </c>
+      <c r="G947" s="45">
+        <v>500</v>
+      </c>
+      <c r="H947" s="45">
+        <v>364</v>
+      </c>
+      <c r="I947" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="948" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A948" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B948" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C948" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D948" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E948" s="45">
+        <v>295</v>
+      </c>
+      <c r="F948" s="47">
+        <v>361.2</v>
+      </c>
+      <c r="G948" s="45">
+        <v>500</v>
+      </c>
+      <c r="H948" s="47">
+        <v>361.2</v>
+      </c>
+      <c r="I948" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="949" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A949" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B949" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C949" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D949" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E949" s="45">
+        <v>291</v>
+      </c>
+      <c r="F949" s="45">
+        <v>358</v>
+      </c>
+      <c r="G949" s="45">
+        <v>500</v>
+      </c>
+      <c r="H949" s="45">
+        <v>358</v>
+      </c>
+      <c r="I949" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="950" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A950" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B950" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C950" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D950" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E950" s="45">
+        <v>288</v>
+      </c>
+      <c r="F950" s="47">
+        <v>354.2</v>
+      </c>
+      <c r="G950" s="45">
+        <v>500</v>
+      </c>
+      <c r="H950" s="47">
+        <v>354.2</v>
+      </c>
+      <c r="I950" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="951" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A951" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B951" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C951" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D951" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E951" s="45">
+        <v>298</v>
+      </c>
+      <c r="F951" s="45">
+        <v>348</v>
+      </c>
+      <c r="G951" s="45">
+        <v>500</v>
+      </c>
+      <c r="H951" s="45">
+        <v>348</v>
+      </c>
+      <c r="I951" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="952" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A952" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B952" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C952" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D952" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E952" s="45">
+        <v>405</v>
+      </c>
+      <c r="F952" s="47">
+        <v>461.6</v>
+      </c>
+      <c r="G952" s="45">
+        <v>500</v>
+      </c>
+      <c r="H952" s="47">
+        <v>433.3</v>
+      </c>
+      <c r="I952" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="953" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A953" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B953" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C953" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D953" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E953" s="45">
+        <v>402</v>
+      </c>
+      <c r="F953" s="47">
+        <v>455.2</v>
+      </c>
+      <c r="G953" s="45">
+        <v>500</v>
+      </c>
+      <c r="H953" s="47">
+        <v>428.6</v>
+      </c>
+      <c r="I953" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="954" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A954" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B954" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C954" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D954" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E954" s="45">
+        <v>390</v>
+      </c>
+      <c r="F954" s="45">
+        <v>443</v>
+      </c>
+      <c r="G954" s="45">
+        <v>500</v>
+      </c>
+      <c r="H954" s="47">
+        <v>416.5</v>
+      </c>
+      <c r="I954" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="955" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A955" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B955" s="50">
+        <v>2023</v>
+      </c>
+      <c r="C955" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D955" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E955" s="50">
+        <v>385</v>
+      </c>
+      <c r="F955" s="51">
+        <v>440.2</v>
+      </c>
+      <c r="G955" s="45">
+        <v>500</v>
+      </c>
+      <c r="H955" s="51">
+        <v>412.6</v>
+      </c>
+      <c r="I955" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="956" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A956" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B956" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C956" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D956" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E956" s="45">
+        <v>386</v>
+      </c>
+      <c r="F956" s="47">
+        <v>422.6</v>
+      </c>
+      <c r="G956" s="45">
+        <v>500</v>
+      </c>
+      <c r="H956" s="47">
+        <v>404.3</v>
+      </c>
+      <c r="I956" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="957" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A957" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B957" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C957" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D957" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E957" s="45">
+        <v>351</v>
+      </c>
+      <c r="F957" s="47">
+        <v>435.2</v>
+      </c>
+      <c r="G957" s="45">
+        <v>500</v>
+      </c>
+      <c r="H957" s="47">
+        <v>393.1</v>
+      </c>
+      <c r="I957" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="958" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A958" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B958" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C958" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D958" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E958" s="45">
+        <v>351</v>
+      </c>
+      <c r="F958" s="47">
+        <v>420.4</v>
+      </c>
+      <c r="G958" s="45">
+        <v>500</v>
+      </c>
+      <c r="H958" s="47">
+        <v>385.7</v>
+      </c>
+      <c r="I958" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="959" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A959" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B959" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C959" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D959" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E959" s="45">
+        <v>374</v>
+      </c>
+      <c r="F959" s="47">
+        <v>370.2</v>
+      </c>
+      <c r="G959" s="45">
+        <v>500</v>
+      </c>
+      <c r="H959" s="47">
+        <v>372.1</v>
+      </c>
+      <c r="I959" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="960" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A960" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B960" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C960" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D960" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E960" s="45">
+        <v>376</v>
+      </c>
+      <c r="F960" s="47">
+        <v>356.4</v>
+      </c>
+      <c r="G960" s="45">
+        <v>500</v>
+      </c>
+      <c r="H960" s="47">
+        <v>366.2</v>
+      </c>
+      <c r="I960" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="961" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A961" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B961" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C961" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D961" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E961" s="45">
+        <v>360</v>
+      </c>
+      <c r="F961" s="45">
+        <v>367</v>
+      </c>
+      <c r="G961" s="45">
+        <v>500</v>
+      </c>
+      <c r="H961" s="47">
+        <v>363.5</v>
+      </c>
+      <c r="I961" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="962" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A962" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B962" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C962" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D962" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E962" s="45">
+        <v>368</v>
+      </c>
+      <c r="F962" s="47">
+        <v>355.4</v>
+      </c>
+      <c r="G962" s="45">
+        <v>500</v>
+      </c>
+      <c r="H962" s="47">
+        <v>361.7</v>
+      </c>
+      <c r="I962" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="963" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A963" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B963" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C963" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D963" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E963" s="45">
+        <v>349</v>
+      </c>
+      <c r="F963" s="47">
+        <v>374.4</v>
+      </c>
+      <c r="G963" s="45">
+        <v>500</v>
+      </c>
+      <c r="H963" s="47">
+        <v>361.7</v>
+      </c>
+      <c r="I963" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="964" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A964" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B964" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C964" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D964" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E964" s="45">
+        <v>359</v>
+      </c>
+      <c r="F964" s="47">
+        <v>360.8</v>
+      </c>
+      <c r="G964" s="45">
+        <v>500</v>
+      </c>
+      <c r="H964" s="47">
+        <v>359.9</v>
+      </c>
+      <c r="I964" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="965" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A965" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B965" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C965" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D965" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E965" s="45">
+        <v>363</v>
+      </c>
+      <c r="F965" s="47">
+        <v>353.8</v>
+      </c>
+      <c r="G965" s="45">
+        <v>500</v>
+      </c>
+      <c r="H965" s="47">
+        <v>358.4</v>
+      </c>
+      <c r="I965" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="966" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A966" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B966" s="48">
+        <v>2023</v>
+      </c>
+      <c r="C966" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D966" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E966" s="48">
+        <v>370</v>
+      </c>
+      <c r="F966" s="48">
+        <v>318</v>
+      </c>
+      <c r="G966" s="45">
+        <v>500</v>
+      </c>
+      <c r="H966" s="48">
+        <v>344</v>
+      </c>
+      <c r="I966" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="967" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A967" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B967" s="50">
+        <v>2023</v>
+      </c>
+      <c r="C967" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D967" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E967" s="50">
+        <v>345</v>
+      </c>
+      <c r="F967" s="50">
+        <v>343</v>
+      </c>
+      <c r="G967" s="45">
+        <v>500</v>
+      </c>
+      <c r="H967" s="50">
+        <v>344</v>
+      </c>
+      <c r="I967" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="968" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A968" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B968" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C968" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D968" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E968" s="45">
+        <v>338</v>
+      </c>
+      <c r="F968" s="47">
+        <v>349.4</v>
+      </c>
+      <c r="G968" s="45">
+        <v>500</v>
+      </c>
+      <c r="H968" s="47">
+        <v>343.7</v>
+      </c>
+      <c r="I968" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="969" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A969" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B969" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C969" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D969" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E969" s="45">
+        <v>335</v>
+      </c>
+      <c r="F969" s="47">
+        <v>351.6</v>
+      </c>
+      <c r="G969" s="45">
+        <v>500</v>
+      </c>
+      <c r="H969" s="47">
+        <v>343.3</v>
+      </c>
+      <c r="I969" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="970" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A970" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B970" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C970" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D970" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E970" s="45">
+        <v>353</v>
+      </c>
+      <c r="F970" s="45">
+        <v>329</v>
+      </c>
+      <c r="G970" s="45">
+        <v>500</v>
+      </c>
+      <c r="H970" s="45">
+        <v>341</v>
+      </c>
+      <c r="I970" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="971" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A971" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B971" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C971" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D971" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E971" s="45">
+        <v>430</v>
+      </c>
+      <c r="F971" s="47">
+        <v>468.8</v>
+      </c>
+      <c r="G971" s="45">
+        <v>500</v>
+      </c>
+      <c r="H971" s="47">
+        <v>449.4</v>
+      </c>
+      <c r="I971" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="972" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A972" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B972" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C972" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D972" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E972" s="45">
+        <v>392</v>
+      </c>
+      <c r="F972" s="47">
+        <v>474.4</v>
+      </c>
+      <c r="G972" s="45">
+        <v>500</v>
+      </c>
+      <c r="H972" s="47">
+        <v>433.2</v>
+      </c>
+      <c r="I972" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="973" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A973" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B973" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C973" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D973" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E973" s="45">
+        <v>384</v>
+      </c>
+      <c r="F973" s="47">
+        <v>472.4</v>
+      </c>
+      <c r="G973" s="45">
+        <v>500</v>
+      </c>
+      <c r="H973" s="47">
+        <v>428.2</v>
+      </c>
+      <c r="I973" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="974" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A974" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B974" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C974" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D974" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E974" s="45">
+        <v>382</v>
+      </c>
+      <c r="F974" s="45">
+        <v>466</v>
+      </c>
+      <c r="G974" s="45">
+        <v>500</v>
+      </c>
+      <c r="H974" s="45">
+        <v>424</v>
+      </c>
+      <c r="I974" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="975" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A975" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B975" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C975" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D975" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E975" s="45">
+        <v>389</v>
+      </c>
+      <c r="F975" s="47">
+        <v>453.4</v>
+      </c>
+      <c r="G975" s="45">
+        <v>500</v>
+      </c>
+      <c r="H975" s="47">
+        <v>421.2</v>
+      </c>
+      <c r="I975" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="976" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A976" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B976" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C976" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D976" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E976" s="45">
+        <v>376</v>
+      </c>
+      <c r="F976" s="45">
+        <v>465</v>
+      </c>
+      <c r="G976" s="45">
+        <v>500</v>
+      </c>
+      <c r="H976" s="47">
+        <v>420.5</v>
+      </c>
+      <c r="I976" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="977" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A977" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B977" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C977" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D977" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E977" s="45">
+        <v>374</v>
+      </c>
+      <c r="F977" s="47">
+        <v>455.8</v>
+      </c>
+      <c r="G977" s="45">
+        <v>500</v>
+      </c>
+      <c r="H977" s="47">
+        <v>414.9</v>
+      </c>
+      <c r="I977" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="978" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A978" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B978" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C978" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D978" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E978" s="45">
+        <v>381</v>
+      </c>
+      <c r="F978" s="47">
+        <v>441.8</v>
+      </c>
+      <c r="G978" s="45">
+        <v>500</v>
+      </c>
+      <c r="H978" s="47">
+        <v>411.4</v>
+      </c>
+      <c r="I978" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="979" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A979" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B979" s="48">
+        <v>2023</v>
+      </c>
+      <c r="C979" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D979" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E979" s="48">
+        <v>377</v>
+      </c>
+      <c r="F979" s="48">
+        <v>444</v>
+      </c>
+      <c r="G979" s="45">
+        <v>500</v>
+      </c>
+      <c r="H979" s="49">
+        <v>410.5</v>
+      </c>
+      <c r="I979" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="980" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A980" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B980" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C980" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D980" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E980" s="45">
+        <v>356</v>
+      </c>
+      <c r="F980" s="45">
+        <v>462</v>
+      </c>
+      <c r="G980" s="45">
+        <v>500</v>
+      </c>
+      <c r="H980" s="45">
+        <v>409</v>
+      </c>
+      <c r="I980" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="981" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A981" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B981" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C981" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D981" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E981" s="45">
+        <v>395</v>
+      </c>
+      <c r="F981" s="47">
+        <v>421.2</v>
+      </c>
+      <c r="G981" s="45">
+        <v>500</v>
+      </c>
+      <c r="H981" s="47">
+        <v>408.1</v>
+      </c>
+      <c r="I981" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="982" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A982" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B982" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C982" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D982" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E982" s="45">
+        <v>360</v>
+      </c>
+      <c r="F982" s="45">
+        <v>450</v>
+      </c>
+      <c r="G982" s="45">
+        <v>500</v>
+      </c>
+      <c r="H982" s="45">
+        <v>405</v>
+      </c>
+      <c r="I982" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="983" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A983" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B983" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C983" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D983" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E983" s="45">
+        <v>396</v>
+      </c>
+      <c r="F983" s="47">
+        <v>407.4</v>
+      </c>
+      <c r="G983" s="45">
+        <v>500</v>
+      </c>
+      <c r="H983" s="47">
+        <v>401.7</v>
+      </c>
+      <c r="I983" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="984" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A984" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B984" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C984" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D984" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E984" s="45">
+        <v>386</v>
+      </c>
+      <c r="F984" s="47">
+        <v>416.4</v>
+      </c>
+      <c r="G984" s="45">
+        <v>500</v>
+      </c>
+      <c r="H984" s="47">
+        <v>401.2</v>
+      </c>
+      <c r="I984" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="985" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A985" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B985" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C985" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D985" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E985" s="45">
+        <v>392</v>
+      </c>
+      <c r="F985" s="47">
+        <v>406.6</v>
+      </c>
+      <c r="G985" s="45">
+        <v>500</v>
+      </c>
+      <c r="H985" s="47">
+        <v>399.3</v>
+      </c>
+      <c r="I985" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="986" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A986" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B986" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C986" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D986" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E986" s="45">
+        <v>397</v>
+      </c>
+      <c r="F986" s="47">
+        <v>398.4</v>
+      </c>
+      <c r="G986" s="45">
+        <v>500</v>
+      </c>
+      <c r="H986" s="47">
+        <v>397.7</v>
+      </c>
+      <c r="I986" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="987" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A987" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B987" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C987" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D987" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E987" s="45">
+        <v>388</v>
+      </c>
+      <c r="F987" s="47">
+        <v>407.2</v>
+      </c>
+      <c r="G987" s="45">
+        <v>500</v>
+      </c>
+      <c r="H987" s="47">
+        <v>397.6</v>
+      </c>
+      <c r="I987" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="988" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A988" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B988" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C988" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D988" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E988" s="45">
+        <v>356</v>
+      </c>
+      <c r="F988" s="47">
+        <v>433.6</v>
+      </c>
+      <c r="G988" s="45">
+        <v>500</v>
+      </c>
+      <c r="H988" s="47">
+        <v>394.8</v>
+      </c>
+      <c r="I988" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="989" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A989" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B989" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C989" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D989" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E989" s="45">
+        <v>373</v>
+      </c>
+      <c r="F989" s="47">
+        <v>416.6</v>
+      </c>
+      <c r="G989" s="45">
+        <v>500</v>
+      </c>
+      <c r="H989" s="47">
+        <v>394.8</v>
+      </c>
+      <c r="I989" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="990" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A990" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B990" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C990" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D990" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E990" s="45">
+        <v>371</v>
+      </c>
+      <c r="F990" s="47">
+        <v>417.2</v>
+      </c>
+      <c r="G990" s="45">
+        <v>500</v>
+      </c>
+      <c r="H990" s="47">
+        <v>394.1</v>
+      </c>
+      <c r="I990" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="991" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A991" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B991" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C991" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D991" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E991" s="45">
+        <v>350</v>
+      </c>
+      <c r="F991" s="47">
+        <v>437.8</v>
+      </c>
+      <c r="G991" s="45">
+        <v>500</v>
+      </c>
+      <c r="H991" s="47">
+        <v>393.9</v>
+      </c>
+      <c r="I991" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="992" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A992" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B992" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C992" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D992" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E992" s="45">
+        <v>366</v>
+      </c>
+      <c r="F992" s="45">
+        <v>420</v>
+      </c>
+      <c r="G992" s="45">
+        <v>500</v>
+      </c>
+      <c r="H992" s="45">
+        <v>393</v>
+      </c>
+      <c r="I992" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="993" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A993" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B993" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C993" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D993" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E993" s="45">
+        <v>373</v>
+      </c>
+      <c r="F993" s="45">
+        <v>413</v>
+      </c>
+      <c r="G993" s="45">
+        <v>500</v>
+      </c>
+      <c r="H993" s="45">
+        <v>393</v>
+      </c>
+      <c r="I993" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="994" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A994" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B994" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C994" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D994" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E994" s="45">
+        <v>370</v>
+      </c>
+      <c r="F994" s="47">
+        <v>415.8</v>
+      </c>
+      <c r="G994" s="45">
+        <v>500</v>
+      </c>
+      <c r="H994" s="47">
+        <v>392.9</v>
+      </c>
+      <c r="I994" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="995" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A995" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B995" s="52">
+        <v>2023</v>
+      </c>
+      <c r="C995" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D995" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E995" s="52">
+        <v>375</v>
+      </c>
+      <c r="F995" s="53">
+        <v>407.8</v>
+      </c>
+      <c r="G995" s="45">
+        <v>500</v>
+      </c>
+      <c r="H995" s="53">
+        <v>391.4</v>
+      </c>
+      <c r="I995" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="996" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A996" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B996" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C996" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D996" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E996" s="45">
+        <v>418</v>
+      </c>
+      <c r="F996" s="47">
+        <v>364.6</v>
+      </c>
+      <c r="G996" s="45">
+        <v>500</v>
+      </c>
+      <c r="H996" s="47">
+        <v>391.3</v>
+      </c>
+      <c r="I996" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="997" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A997" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B997" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C997" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D997" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E997" s="45">
+        <v>405</v>
+      </c>
+      <c r="F997" s="47">
+        <v>373.8</v>
+      </c>
+      <c r="G997" s="45">
+        <v>500</v>
+      </c>
+      <c r="H997" s="47">
+        <v>389.4</v>
+      </c>
+      <c r="I997" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="998" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A998" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B998" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C998" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D998" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E998" s="45">
+        <v>356</v>
+      </c>
+      <c r="F998" s="45">
+        <v>422</v>
+      </c>
+      <c r="G998" s="45">
+        <v>500</v>
+      </c>
+      <c r="H998" s="45">
+        <v>389</v>
+      </c>
+      <c r="I998" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="999" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A999" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B999" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C999" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D999" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E999" s="45">
+        <v>356</v>
+      </c>
+      <c r="F999" s="47">
+        <v>421.4</v>
+      </c>
+      <c r="G999" s="45">
+        <v>500</v>
+      </c>
+      <c r="H999" s="47">
+        <v>388.7</v>
+      </c>
+      <c r="I999" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1000" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1000" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1000" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1000" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1000" s="45">
+        <v>384</v>
+      </c>
+      <c r="F1000" s="45">
+        <v>393</v>
+      </c>
+      <c r="G1000" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1000" s="47">
+        <v>388.5</v>
+      </c>
+      <c r="I1000" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1001" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1001" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1001" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1001" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1001" s="45">
+        <v>398</v>
+      </c>
+      <c r="F1001" s="47">
+        <v>373.6</v>
+      </c>
+      <c r="G1001" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1001" s="47">
+        <v>385.8</v>
+      </c>
+      <c r="I1001" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1002" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1002" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1002" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1002" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1002" s="45">
+        <v>377</v>
+      </c>
+      <c r="F1002" s="45">
+        <v>394</v>
+      </c>
+      <c r="G1002" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1002" s="47">
+        <v>385.5</v>
+      </c>
+      <c r="I1002" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1003" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1003" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1003" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1003" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1003" s="45">
+        <v>385</v>
+      </c>
+      <c r="F1003" s="47">
+        <v>382.6</v>
+      </c>
+      <c r="G1003" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1003" s="47">
+        <v>383.8</v>
+      </c>
+      <c r="I1003" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1004" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1004" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1004" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1004" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1004" s="45">
+        <v>350</v>
+      </c>
+      <c r="F1004" s="47">
+        <v>412.4</v>
+      </c>
+      <c r="G1004" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1004" s="47">
+        <v>381.2</v>
+      </c>
+      <c r="I1004" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1005" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1005" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1005" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1005" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1005" s="45">
+        <v>358</v>
+      </c>
+      <c r="F1005" s="45">
+        <v>402</v>
+      </c>
+      <c r="G1005" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1005" s="45">
+        <v>380</v>
+      </c>
+      <c r="I1005" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1006" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1006" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1006" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1006" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1006" s="45">
+        <v>372</v>
+      </c>
+      <c r="F1006" s="45">
+        <v>386</v>
+      </c>
+      <c r="G1006" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1006" s="45">
+        <v>379</v>
+      </c>
+      <c r="I1006" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1007" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1007" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1007" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1007" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1007" s="45">
+        <v>375</v>
+      </c>
+      <c r="F1007" s="47">
+        <v>378.2</v>
+      </c>
+      <c r="G1007" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1007" s="47">
+        <v>376.6</v>
+      </c>
+      <c r="I1007" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1008" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1008" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1008" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1008" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1008" s="45">
+        <v>371</v>
+      </c>
+      <c r="F1008" s="47">
+        <v>377.2</v>
+      </c>
+      <c r="G1008" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1008" s="47">
+        <v>374.1</v>
+      </c>
+      <c r="I1008" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1009" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1009" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1009" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1009" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1009" s="45">
+        <v>395</v>
+      </c>
+      <c r="F1009" s="47">
+        <v>352.2</v>
+      </c>
+      <c r="G1009" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1009" s="47">
+        <v>373.6</v>
+      </c>
+      <c r="I1009" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1010" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1010" s="48">
+        <v>2023</v>
+      </c>
+      <c r="C1010" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1010" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1010" s="48">
+        <v>386</v>
+      </c>
+      <c r="F1010" s="49">
+        <v>357.8</v>
+      </c>
+      <c r="G1010" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1010" s="49">
+        <v>371.9</v>
+      </c>
+      <c r="I1010" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1011" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1011" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1011" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1011" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1011" s="45">
+        <v>354</v>
+      </c>
+      <c r="F1011" s="47">
+        <v>384.6</v>
+      </c>
+      <c r="G1011" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1011" s="47">
+        <v>369.3</v>
+      </c>
+      <c r="I1011" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1012" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1012" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1012" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1012" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1012" s="45">
+        <v>345</v>
+      </c>
+      <c r="F1012" s="47">
+        <v>391.6</v>
+      </c>
+      <c r="G1012" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1012" s="47">
+        <v>368.3</v>
+      </c>
+      <c r="I1012" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1013" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1013" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1013" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1013" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1013" s="45">
+        <v>380</v>
+      </c>
+      <c r="F1013" s="47">
+        <v>356.6</v>
+      </c>
+      <c r="G1013" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1013" s="47">
+        <v>368.3</v>
+      </c>
+      <c r="I1013" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1014" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1014" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1014" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1014" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1014" s="45">
+        <v>354</v>
+      </c>
+      <c r="F1014" s="47">
+        <v>382.4</v>
+      </c>
+      <c r="G1014" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1014" s="47">
+        <v>368.2</v>
+      </c>
+      <c r="I1014" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1015" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1015" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1015" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1015" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1015" s="45">
+        <v>324</v>
+      </c>
+      <c r="F1015" s="47">
+        <v>412.2</v>
+      </c>
+      <c r="G1015" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1015" s="47">
+        <v>368.1</v>
+      </c>
+      <c r="I1015" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1016" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1016" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1016" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1016" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1016" s="45">
+        <v>331</v>
+      </c>
+      <c r="F1016" s="45">
+        <v>405</v>
+      </c>
+      <c r="G1016" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1016" s="45">
+        <v>368</v>
+      </c>
+      <c r="I1016" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1017" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1017" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1017" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1017" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1017" s="45">
+        <v>343</v>
+      </c>
+      <c r="F1017" s="47">
+        <v>391.8</v>
+      </c>
+      <c r="G1017" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1017" s="47">
+        <v>367.4</v>
+      </c>
+      <c r="I1017" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1018" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1018" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1018" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1018" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1018" s="45">
+        <v>339</v>
+      </c>
+      <c r="F1018" s="47">
+        <v>393.6</v>
+      </c>
+      <c r="G1018" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1018" s="47">
+        <v>366.3</v>
+      </c>
+      <c r="I1018" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1019" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1019" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1019" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1019" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1019" s="45">
+        <v>370</v>
+      </c>
+      <c r="F1019" s="47">
+        <v>362.4</v>
+      </c>
+      <c r="G1019" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1019" s="47">
+        <v>366.2</v>
+      </c>
+      <c r="I1019" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1020" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1020" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1020" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1020" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1020" s="45">
+        <v>363</v>
+      </c>
+      <c r="F1020" s="47">
+        <v>367.2</v>
+      </c>
+      <c r="G1020" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1020" s="47">
+        <v>365.1</v>
+      </c>
+      <c r="I1020" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1021" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1021" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1021" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1021" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1021" s="45">
+        <v>344</v>
+      </c>
+      <c r="F1021" s="47">
+        <v>382.4</v>
+      </c>
+      <c r="G1021" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1021" s="47">
+        <v>363.2</v>
+      </c>
+      <c r="I1021" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1022" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1022" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C1022" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1022" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1022" s="45">
+        <v>348</v>
+      </c>
+      <c r="F1022" s="47">
+        <v>377.6</v>
+      </c>
+      <c r="G1022" s="45">
+        <v>500</v>
+      </c>
+      <c r="H1022" s="47">
+        <v>362.8</v>
+      </c>
+      <c r="I1022" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/CPEER.xlsx
+++ b/CPEER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangcheng\Desktop\python数据处理\CPEER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4529FF4D-06DB-4855-862E-9349BEF9417D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9576D7-773E-4F00-A090-A03BFD90BA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="0" windowWidth="18996" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
